--- a/biology/Botanique/Leccinum_schistophilum/Leccinum_schistophilum.xlsx
+++ b/biology/Botanique/Leccinum_schistophilum/Leccinum_schistophilum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude des schistes
 Leccinum schistophilum, le Bolet rude des schistes, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par son habitat sur  terrils schisteux.
@@ -512,12 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Leccinum schistophilum Bon[1].
-Synonymes
-Leccinum schistophilum a pour synonyme[1] :
-Leccinum palustre M.Korhonen</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum schistophilum Bon.
+</t>
         </is>
       </c>
     </row>
@@ -542,20 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum schistophilum, le Bolet rude des schistes, sont les suivantes :
-Son chapeau mesure 5 à 7 cm, de couleur ocre clair un d'aspect peu cabossé et craquelé[2],[3].
-L'hyménophore présente des tubes et des pores de couleur crème pâle[2],[3].
-Son stipe mesure 7 à 8 x 1 à 2 cm, de forme clavé à subfusiforme à base atténuée subradicante. Il est orné de squames grossières en chinures plus moins horizontales et est souvent taché de vert bleu à partir de la base[2],[3].
-La chair est blanche, quasi immuable à lentement gris rosé à partir de la base[2],[3].
-Réactions chimiques
-Réaction gris olivâtre à vert grisâtre au FeSO4, la réaction des autres réactifs est nulle[2].
-Caractéristiques microscopiques
-Ses spores mesurent 18 x 6.5 µm en moyenne, de forme fusiforme à légère dépression supra appendiculaire[2].</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum schistophilum a pour synonyme :
+Leccinum palustre M.Korhonen</t>
         </is>
       </c>
     </row>
@@ -580,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous bouleaux sur terrils schisteux et éboulis schisteux de charbonnages[3].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum schistophilum, le Bolet rude des schistes, sont les suivantes :
+Son chapeau mesure 5 à 7 cm, de couleur ocre clair un d'aspect peu cabossé et craquelé,.
+L'hyménophore présente des tubes et des pores de couleur crème pâle,.
+Son stipe mesure 7 à 8 x 1 à 2 cm, de forme clavé à subfusiforme à base atténuée subradicante. Il est orné de squames grossières en chinures plus moins horizontales et est souvent taché de vert bleu à partir de la base,.
+La chair est blanche, quasi immuable à lentement gris rosé à partir de la base,.
 </t>
         </is>
       </c>
@@ -611,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Bolet rude des schistes est comestible[3]. Comme toutes les espèces de Leccinum au sens large, ce bolet est un comestible médiocre, au pied fibreux souvent rejeté. Il est fréquemment recommandé de le cueillir jeune et de ne garder que le chapeau. Les Bolets rudes sont à l'origine de troubles gastro-intestinaux s'ils sont consommés crus ou mal cuits.
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaction gris olivâtre à vert grisâtre au FeSO4, la réaction des autres réactifs est nulle.
 </t>
         </is>
       </c>
@@ -642,10 +665,115 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ses spores mesurent 18 x 6.5 µm en moyenne, de forme fusiforme à légère dépression supra appendiculaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous bouleaux sur terrils schisteux et éboulis schisteux de charbonnages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet rude des schistes est comestible. Comme toutes les espèces de Leccinum au sens large, ce bolet est un comestible médiocre, au pied fibreux souvent rejeté. Il est fréquemment recommandé de le cueillir jeune et de ne garder que le chapeau. Les Bolets rudes sont à l'origine de troubles gastro-intestinaux s'ils sont consommés crus ou mal cuits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_schistophilum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À comparer avec d'autres Leccinum à taches bleutées à la base du stipe comme Leccinum variicolor qui a un chapeau gris.
 </t>
